--- a/src/apodeixi/controllers/util/tests_unit/input_data/user_validation_10_INPUT.xlsx
+++ b/src/apodeixi/controllers/util/tests_unit/input_data/user_validation_10_INPUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\util\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429EEE7-2550-4DA3-91E0-63AD5179BBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A1B930-4A37-4228-9F8D-BA7B9B6EF4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="3" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="3" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Posting Label</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   <si>
     <t>User left blank the entity name in a row with data for that entity, and the software can 'correct it' if what happened is that the user entered it in the previous row and then left the previous row blank starting at some column, using the next row insted for such data. This is the second of two sub-cases:
 the extra row data is for the next interval after the one with the missing entity name</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97241D7-8658-4BD0-A90F-924E588AE6D5}">
   <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -804,135 +804,135 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="11">
         <v>44373</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -970,96 +970,96 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
@@ -1100,29 +1100,29 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="12">
         <v>1023.34</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12">
         <v>23589.32</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12">
         <v>10000</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12">
         <v>500</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12">
         <v>3200</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12">
         <v>321.43</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12">
         <v>200000</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="12">
         <v>8123</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12">
         <v>-35.67</v>
@@ -1240,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B0113B-077E-4045-B2E6-42F820C89C74}">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1254,7 +1254,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1266,55 +1266,55 @@
     </row>
     <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="7">
         <v>21340</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
@@ -1325,10 +1325,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -1336,19 +1336,19 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7">
         <v>43987</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -1359,21 +1359,21 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1386,19 +1386,19 @@
       <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7">
         <v>94721</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
@@ -1409,10 +1409,10 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
@@ -1420,19 +1420,19 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7">
         <v>65321</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
@@ -1443,10 +1443,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
@@ -1457,10 +1457,10 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
@@ -1489,6 +1489,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCBD749F692D2840A5441473A3346AC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2155aeb54e5d7003d408112aa42e75d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1457f3fe-6304-4719-bef8-60c608407d99" xmlns:ns3="66517581-92a9-4cb0-981f-3f6c827c3504" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4c58ad8abd1e926bea19a7235ad73cd" ns2:_="" ns3:_="">
     <xsd:import namespace="1457f3fe-6304-4719-bef8-60c608407d99"/>
@@ -1699,30 +1722,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{821A1CA1-1BFA-4232-A3C4-563FBA90B62E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1739,22 +1757,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>